--- a/Datasets/PanCard.xlsx
+++ b/Datasets/PanCard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Semester-VIII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malan\Documents\GitHub\Document-Verification-OCR\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EBB518-982E-458A-B12E-F133AE2AAE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459973D7-CA9D-4600-9C13-EFCDC6A8D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
     <t>AEFFD7587L</t>
   </si>
   <si>
-    <t>17/07/1986</t>
+    <t>16/07/1986</t>
   </si>
 </sst>
 </file>
@@ -981,18 +981,18 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>64257</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>46998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>42403</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>21824</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>49773</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>51594</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>11785</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>19608</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>65540</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>54102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>31837</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>10397</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>58506</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>59049</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>54863</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>72930</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>27062</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>50066</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>53420</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>71409</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>27125</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>11489</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>63844</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>15038</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>69825</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>10799</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>35861</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>27823</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>72322</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>70725</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>26669</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>54902</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>59390</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>29757</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>20182</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>57841</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>65962</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>7827</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>32203</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>65419</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>52359</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>39486</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>56618</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>60791</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>11728</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>22463</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>113</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>28350</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>115</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>27768</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>69587</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>59934</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>121</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>11874</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>66239</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>40306</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>46603</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>129</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>26854</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>134</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>67812</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>136</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>40503</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>138</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>42103</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>140</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>10844</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>142</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>68409</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>69401</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>68677</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>148</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>36540</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>49010</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>152</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>11829</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>154</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>156</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>8561</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>158</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>34034</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>160</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>63071</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>162</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>63434</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>164</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>63640</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>166</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>22757</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>168</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>12426</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>170</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>34390</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>172</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>64985</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>174</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>12150</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>176</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>8653</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>178</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>24164</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>180</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>182</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>53729</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>184</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>16837</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>186</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>65782</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>188</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>54457</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>190</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>26315</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>192</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>195</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>22404</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>197</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>64713</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>199</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>54976</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>201</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>203</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>55765</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>205</v>
       </c>

--- a/Datasets/PanCard.xlsx
+++ b/Datasets/PanCard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malan\Documents\GitHub\Document-Verification-OCR\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Main\Document-Verification-OCR\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459973D7-CA9D-4600-9C13-EFCDC6A8D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A30BD0F-673E-4226-B9B7-328C6898BCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -978,21 +978,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,1115 +1003,1115 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>64257</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>46998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>42403</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>21824</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>49773</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>51594</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>11785</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>19608</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>65540</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>54102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>31837</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>10397</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>9557</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>3745</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>58506</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>59049</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>54863</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>6379</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>72930</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>27062</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>50066</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>53420</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>3168</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>71409</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>27125</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>11489</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>63844</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>15038</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>69825</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>2654</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>10799</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>35861</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>27823</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="2">
         <v>72322</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>2594</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="2">
         <v>70725</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <v>26669</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <v>54902</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>59390</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <v>29757</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C44" s="2">
         <v>20182</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <v>57841</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>65962</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>7827</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>32203</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>65419</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="2">
         <v>52359</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="2">
         <v>39486</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>56618</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="2">
         <v>60791</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="2">
         <v>11728</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>22463</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="2">
         <v>1559</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="2">
         <v>28350</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>27768</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>69587</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>59934</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="2">
         <v>11874</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="2">
         <v>66239</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C64" s="2">
         <v>40306</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C65" s="2">
         <v>46603</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="2">
         <v>26854</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C68" s="2">
         <v>67812</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C69" s="2">
         <v>40503</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C70" s="2">
         <v>42103</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C71" s="2">
         <v>10844</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C72" s="2">
         <v>68409</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C73" s="2">
         <v>69401</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C74" s="2">
         <v>68677</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C75" s="2">
         <v>36540</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C76" s="2">
         <v>49010</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C77" s="2">
         <v>11829</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>825</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C79" s="2">
         <v>8561</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="2">
         <v>34034</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="2">
         <v>63071</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>63434</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <v>63640</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C84" s="2">
         <v>22757</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C85" s="2">
         <v>12426</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="2">
         <v>34390</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C87" s="2">
         <v>64985</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C88" s="2">
         <v>12150</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C89" s="2">
         <v>8653</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C90" s="2">
         <v>24164</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C91" s="2">
         <v>4400</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>53729</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C93" s="2">
         <v>16837</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C94" s="2">
         <v>65782</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C95" s="2">
         <v>54457</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C96" s="2">
         <v>26315</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C98" s="2">
         <v>22404</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C99" s="2">
         <v>64713</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C100" s="2">
         <v>54976</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C101" s="2">
         <v>4081</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C102" s="2">
         <v>55765</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C103" s="2">
         <v>30805</v>
       </c>
     </row>

--- a/Datasets/PanCard.xlsx
+++ b/Datasets/PanCard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Main\Document-Verification-OCR\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A30BD0F-673E-4226-B9B7-328C6898BCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D92A9B-251B-4F88-BBEA-A2F46AB9A91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -426,9 +426,6 @@
     <t>ACZGK7998V</t>
   </si>
   <si>
-    <t>29/02/1961</t>
-  </si>
-  <si>
     <t>C DHRITI</t>
   </si>
   <si>
@@ -609,9 +606,6 @@
     <t>ADYPI1038E</t>
   </si>
   <si>
-    <t>31/04/1906</t>
-  </si>
-  <si>
     <t>MUKUND UPADHYAY</t>
   </si>
   <si>
@@ -649,6 +643,48 @@
   </si>
   <si>
     <t>16/07/1986</t>
+  </si>
+  <si>
+    <t>04/12/2007</t>
+  </si>
+  <si>
+    <t>02/09/2008</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>01/10/1959</t>
+  </si>
+  <si>
+    <t>08/04/2003</t>
+  </si>
+  <si>
+    <t>03/04/2004</t>
+  </si>
+  <si>
+    <t>06/04/1932</t>
+  </si>
+  <si>
+    <t>06/09/1953</t>
+  </si>
+  <si>
+    <t>09/06/2007</t>
+  </si>
+  <si>
+    <t>14/02/2004</t>
+  </si>
+  <si>
+    <t>01/03/1987</t>
+  </si>
+  <si>
+    <t>18/06/1928</t>
+  </si>
+  <si>
+    <t>01/03/1926</t>
+  </si>
+  <si>
+    <t>02/04/1910</t>
   </si>
 </sst>
 </file>
@@ -978,32 +1014,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1011,151 +1048,152 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>64257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>46998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
-        <v>42403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
-        <v>21824</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
-        <v>49773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2">
-        <v>51594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
-        <v>11785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
-        <v>19608</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2">
-        <v>65540</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2">
-        <v>54102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
-        <v>31837</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
-        <v>10397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2">
-        <v>9557</v>
+      <c r="C16" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1165,8 +1203,8 @@
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2">
-        <v>3745</v>
+      <c r="C17" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1176,8 +1214,8 @@
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2">
-        <v>58506</v>
+      <c r="C18" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1187,8 +1225,8 @@
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2">
-        <v>59049</v>
+      <c r="C19" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1198,8 +1236,8 @@
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2">
-        <v>54863</v>
+      <c r="C20" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1209,8 +1247,8 @@
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2">
-        <v>6379</v>
+      <c r="C21" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1220,8 +1258,8 @@
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2">
-        <v>72930</v>
+      <c r="C22" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1231,8 +1269,8 @@
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2">
-        <v>27062</v>
+      <c r="C23" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,8 +1280,8 @@
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="2">
-        <v>50066</v>
+      <c r="C24" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1253,8 +1291,8 @@
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2">
-        <v>53420</v>
+      <c r="C25" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1264,8 +1302,8 @@
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2">
-        <v>3168</v>
+      <c r="C26" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1275,8 +1313,8 @@
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="2">
-        <v>71409</v>
+      <c r="C27" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,8 +1324,8 @@
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="2">
-        <v>27125</v>
+      <c r="C28" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1297,8 +1335,8 @@
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="2">
-        <v>11489</v>
+      <c r="C29" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1308,8 +1346,8 @@
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="2">
-        <v>63844</v>
+      <c r="C30" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,8 +1357,8 @@
       <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="2">
-        <v>15038</v>
+      <c r="C31" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1330,8 +1368,8 @@
       <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="2">
-        <v>69825</v>
+      <c r="C32" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1341,8 +1379,8 @@
       <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="2">
-        <v>2654</v>
+      <c r="C33" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1352,8 +1390,8 @@
       <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="2">
-        <v>10799</v>
+      <c r="C34" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1363,8 +1401,8 @@
       <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="2">
-        <v>35861</v>
+      <c r="C35" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1374,8 +1412,8 @@
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="2">
-        <v>27823</v>
+      <c r="C36" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1385,8 +1423,8 @@
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="2">
-        <v>72322</v>
+      <c r="C37" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1396,8 +1434,8 @@
       <c r="B38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="2">
-        <v>2594</v>
+      <c r="C38" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1407,8 +1445,8 @@
       <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="2">
-        <v>70725</v>
+      <c r="C39" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,8 +1456,8 @@
       <c r="B40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="2">
-        <v>26669</v>
+      <c r="C40" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1429,8 +1467,8 @@
       <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="2">
-        <v>54902</v>
+      <c r="C41" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1440,8 +1478,8 @@
       <c r="B42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="2">
-        <v>59390</v>
+      <c r="C42" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1451,8 +1489,8 @@
       <c r="B43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="2">
-        <v>29757</v>
+      <c r="C43" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1462,8 +1500,8 @@
       <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="2">
-        <v>20182</v>
+      <c r="C44" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1473,8 +1511,8 @@
       <c r="B45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="2">
-        <v>57841</v>
+      <c r="C45" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1484,8 +1522,8 @@
       <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="2">
-        <v>65962</v>
+      <c r="C46" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,8 +1533,8 @@
       <c r="B47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="2">
-        <v>7827</v>
+      <c r="C47" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1506,8 +1544,8 @@
       <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="2">
-        <v>32203</v>
+      <c r="C48" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1517,8 +1555,8 @@
       <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="2">
-        <v>65419</v>
+      <c r="C49" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1528,8 +1566,8 @@
       <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="2">
-        <v>52359</v>
+      <c r="C50" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1539,8 +1577,8 @@
       <c r="B51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="2">
-        <v>39486</v>
+      <c r="C51" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1550,8 +1588,8 @@
       <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="2">
-        <v>56618</v>
+      <c r="C52" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,8 +1599,8 @@
       <c r="B53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="2">
-        <v>60791</v>
+      <c r="C53" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1572,8 +1610,8 @@
       <c r="B54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="2">
-        <v>11728</v>
+      <c r="C54" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1583,8 +1621,8 @@
       <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="2">
-        <v>154</v>
+      <c r="C55" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1594,8 +1632,8 @@
       <c r="B56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="2">
-        <v>22463</v>
+      <c r="C56" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1605,8 +1643,8 @@
       <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="2">
-        <v>1559</v>
+      <c r="C57" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1616,8 +1654,8 @@
       <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="2">
-        <v>28350</v>
+      <c r="C58" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1627,8 +1665,8 @@
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="2">
-        <v>27768</v>
+      <c r="C59" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1638,8 +1676,8 @@
       <c r="B60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="2">
-        <v>69587</v>
+      <c r="C60" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1649,8 +1687,8 @@
       <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="2">
-        <v>59934</v>
+      <c r="C61" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,8 +1698,8 @@
       <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="2">
-        <v>11874</v>
+      <c r="C62" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,8 +1709,8 @@
       <c r="B63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="2">
-        <v>66239</v>
+      <c r="C63" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1682,8 +1720,8 @@
       <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="2">
-        <v>40306</v>
+      <c r="C64" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,8 +1731,8 @@
       <c r="B65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="2">
-        <v>46603</v>
+      <c r="C65" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,8 +1742,8 @@
       <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="2">
-        <v>26854</v>
+      <c r="C66" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1715,404 +1753,404 @@
       <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>133</v>
+      <c r="C67" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="2">
-        <v>67812</v>
+      <c r="C68" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="2">
-        <v>40503</v>
+      <c r="C69" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="2">
-        <v>42103</v>
+      <c r="C70" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="2">
-        <v>10844</v>
+      <c r="C71" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="2">
-        <v>68409</v>
+      <c r="C72" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="2">
-        <v>69401</v>
+      <c r="C73" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="2">
-        <v>68677</v>
+      <c r="C74" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="2">
-        <v>36540</v>
+      <c r="C75" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="2">
-        <v>49010</v>
+      <c r="C76" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="2">
-        <v>11829</v>
+      <c r="C77" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" s="2">
-        <v>825</v>
+      <c r="C78" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="2">
-        <v>8561</v>
+      <c r="C79" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="2">
-        <v>34034</v>
+      <c r="C80" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="2">
-        <v>63071</v>
+      <c r="C81" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="2">
-        <v>63434</v>
+      <c r="C82" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="2">
-        <v>63640</v>
+      <c r="C83" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C84" s="2">
-        <v>22757</v>
+      <c r="C84" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="2">
-        <v>12426</v>
+      <c r="C85" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" s="2">
-        <v>34390</v>
+      <c r="C86" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" s="2">
-        <v>64985</v>
+      <c r="C87" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" s="2">
-        <v>12150</v>
+      <c r="C88" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C89" s="2">
-        <v>8653</v>
+      <c r="C89" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="2">
-        <v>24164</v>
+      <c r="C90" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C91" s="2">
-        <v>4400</v>
+      <c r="C91" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C92" s="2">
-        <v>53729</v>
+      <c r="C92" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C93" s="2">
-        <v>16837</v>
+      <c r="C93" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C94" s="2">
-        <v>65782</v>
+      <c r="C94" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" s="2">
-        <v>54457</v>
+      <c r="C95" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" s="2">
-        <v>26315</v>
+      <c r="C96" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>194</v>
+      <c r="C97" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="2">
-        <v>22404</v>
+        <v>194</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C99" s="2">
-        <v>64713</v>
+        <v>196</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C100" s="2">
-        <v>54976</v>
+        <v>198</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C101" s="2">
-        <v>4081</v>
+        <v>200</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C102" s="2">
-        <v>55765</v>
+        <v>202</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" s="2">
-        <v>30805</v>
+        <v>204</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/PanCard.xlsx
+++ b/Datasets/PanCard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Main\Document-Verification-OCR\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D92A9B-251B-4F88-BBEA-A2F46AB9A91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C6C2ED-A90E-470A-949F-C358B34A6BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="229">
   <si>
     <t>Name</t>
   </si>
@@ -685,6 +685,33 @@
   </si>
   <si>
     <t>02/04/1910</t>
+  </si>
+  <si>
+    <t>ROHAN SANJAY BAJAJ</t>
+  </si>
+  <si>
+    <t>EPSPB7348P</t>
+  </si>
+  <si>
+    <t>19/11/2000</t>
+  </si>
+  <si>
+    <t>KHUSHAL GHANSHAM DODEJA</t>
+  </si>
+  <si>
+    <t>21/11/2001</t>
+  </si>
+  <si>
+    <t>GBKPD9617P</t>
+  </si>
+  <si>
+    <t>ALEX RAKESH BAFNA</t>
+  </si>
+  <si>
+    <t>BRJPB7861B</t>
+  </si>
+  <si>
+    <t>27/07/2000</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,1114 +1069,1147 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+        <v>228</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>208</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>215</v>
       </c>
     </row>

--- a/Datasets/PanCard.xlsx
+++ b/Datasets/PanCard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Main\Document-Verification-OCR\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C6C2ED-A90E-470A-949F-C358B34A6BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4F478C-8176-4019-BDFA-848BFE1939D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="232">
   <si>
     <t>Name</t>
   </si>
@@ -712,6 +712,15 @@
   </si>
   <si>
     <t>27/07/2000</t>
+  </si>
+  <si>
+    <t>KUNAL LACHHMAN BUDHRANI</t>
+  </si>
+  <si>
+    <t>09/10/2001</t>
+  </si>
+  <si>
+    <t>FFZPB1943E</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,1147 +1078,1158 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>206</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>215</v>
       </c>
     </row>
